--- a/Lan_api/webui_api_827.xlsx
+++ b/Lan_api/webui_api_827.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="10305" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="27960" windowHeight="10140" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Logout" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>Interface</t>
   </si>
@@ -230,6 +230,22 @@
 7 -- account or passwd failed
 66 -- not found action
 11 -- don't support GET</t>
+  </si>
+  <si>
+    <t>getdhcp</t>
+  </si>
+  <si>
+    <t>{"action":"getdhcp"}</t>
+  </si>
+  <si>
+    <t>{
+    "ipaddr": "192.168.1.1\n",
+    "netmask": "255.255.255.0\n",
+    "ip6assign": "60\n",
+    "multicast_querier": "0\n",
+    "igmp_snooping": "0\n",
+    "ieee1905managed": "1\n"
+}</t>
   </si>
   <si>
     <t>POST Parameter</t>
@@ -1032,7 +1048,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1123,6 +1139,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1735,7 +1754,7 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3"/>
@@ -1770,7 +1789,7 @@
       <c r="J2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" ht="16.5" spans="1:12">
@@ -1784,7 +1803,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="36"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" ht="16.5" spans="1:12">
@@ -4677,14 +4696,14 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="35" t="s">
         <v>22</v>
       </c>
       <c r="Q2" s="3"/>
@@ -8674,7 +8693,7 @@
   <dimension ref="A1:P200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H3"/>
+      <selection activeCell="N4" sqref="N4:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -8762,20 +8781,30 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" ht="16.5" spans="1:16">
-      <c r="A4" s="31"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="I4" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="N4" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
@@ -8793,7 +8822,7 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
@@ -12308,12 +12337,15 @@
       <c r="P200" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:M1"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:M4"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="I2:M3"/>
   </mergeCells>
@@ -12364,7 +12396,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -12374,15 +12406,15 @@
         <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -12842,7 +12874,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -12860,13 +12892,13 @@
         <v>4</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
@@ -13455,7 +13487,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -13470,7 +13502,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="9" t="s">
@@ -13535,7 +13567,7 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -16364,14 +16396,14 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1"/>
     </row>

--- a/Lan_api/webui_api_827.xlsx
+++ b/Lan_api/webui_api_827.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>Interface</t>
   </si>
@@ -91,21 +91,6 @@
     <t>error:
 0 -- success
 non-zero: fail code</t>
-  </si>
-  <si>
-    <t>LAN</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>WAN</t>
-  </si>
-  <si>
-    <t>WIFI</t>
-  </si>
-  <si>
-    <t>Device</t>
   </si>
   <si>
     <t>Method</t>
@@ -208,6 +193,9 @@
     </r>
   </si>
   <si>
+    <t>POST</t>
+  </si>
+  <si>
     <t>{ "action":"login","param":{"admin":"admin","passwd":"123456789"}}</t>
   </si>
   <si>
@@ -245,6 +233,39 @@
     "multicast_querier": "0\n",
     "igmp_snooping": "0\n",
     "ieee1905managed": "1\n"
+}</t>
+  </si>
+  <si>
+    <t>GetVersion</t>
+  </si>
+  <si>
+    <t>{"action":"GetVersion"}</t>
+  </si>
+  <si>
+    <t>{
+    "openwrt": "15.05.1\n",
+    "kernel": "4.4.60\n",
+    "fw_version": "\"3.2.x001\"",
+    "full_fw_version": "\"3.2.x001\"",
+    "vendor_version": "\"3.2.x001.1\""
+}</t>
+  </si>
+  <si>
+    <t>setDHCP</t>
+  </si>
+  <si>
+    <t>{
+    "action":"setDHCP",
+    "ipaddr":"192.168.1.110",
+    "netmask":"255.255.255.0",
+    "limit":"125",
+    "start":"100",
+    "leasetime":"50"    
+}</t>
+  </si>
+  <si>
+    <t>{
+    "error": 0
 }</t>
   </si>
   <si>
@@ -322,6 +343,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>LAN</t>
   </si>
 </sst>
 </file>
@@ -570,9 +594,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
@@ -582,10 +607,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="SimSun"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1138,10 +1162,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1726,10 +1750,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:L200"/>
+  <dimension ref="A1:L192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1786,7 +1810,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="33" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="37"/>
@@ -1807,55 +1831,45 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" ht="16.5" spans="1:12">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" ht="16.5" spans="1:12">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="31"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" ht="16.5" spans="1:12">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="31"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" ht="16.5" spans="1:12">
@@ -1865,31 +1879,25 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" ht="16.5" spans="1:12">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" ht="16.5" spans="1:12">
@@ -1899,31 +1907,25 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" ht="16.5" spans="1:12">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" ht="16.5" spans="1:12">
@@ -1933,39 +1935,39 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" ht="16.5" spans="1:12">
-      <c r="A12" s="31"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" ht="16.5" spans="1:12">
-      <c r="A13" s="31"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" ht="16.5" spans="1:12">
@@ -4474,148 +4476,16 @@
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
     </row>
-    <row r="193" ht="16.5" spans="1:12">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
-      <c r="L193" s="3"/>
-    </row>
-    <row r="194" ht="16.5" spans="1:12">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
-      <c r="K194" s="3"/>
-      <c r="L194" s="3"/>
-    </row>
-    <row r="195" ht="16.5" spans="1:12">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
-      <c r="K195" s="3"/>
-      <c r="L195" s="3"/>
-    </row>
-    <row r="196" ht="16.5" spans="1:12">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
-      <c r="K196" s="3"/>
-      <c r="L196" s="3"/>
-    </row>
-    <row r="197" ht="16.5" spans="1:12">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
-      <c r="K197" s="3"/>
-      <c r="L197" s="3"/>
-    </row>
-    <row r="198" ht="16.5" spans="1:12">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
-      <c r="K198" s="3"/>
-      <c r="L198" s="3"/>
-    </row>
-    <row r="199" ht="16.5" spans="1:12">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
-      <c r="L199" s="3"/>
-    </row>
-    <row r="200" ht="16.5" spans="1:12">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
-      <c r="L200" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="8">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="D2:F3"/>
     <mergeCell ref="G2:I3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="D6:F7"/>
-    <mergeCell ref="G6:I7"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="D10:F11"/>
-    <mergeCell ref="G10:I11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4650,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>2</v>
@@ -4665,7 +4535,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -4679,16 +4549,16 @@
     </row>
     <row r="2" ht="16.5" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -4697,14 +4567,14 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="34" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="35" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -8693,7 +8563,7 @@
   <dimension ref="A1:P200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N5"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -8711,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>2</v>
@@ -8722,7 +8592,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -8736,13 +8606,13 @@
     </row>
     <row r="2" ht="165" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -8750,14 +8620,14 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="32" t="s">
-        <v>27</v>
+      <c r="N2" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -8782,42 +8652,50 @@
     </row>
     <row r="4" ht="16.5" spans="1:16">
       <c r="A4" s="31" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="33" t="s">
-        <v>30</v>
+      <c r="I4" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="32" t="s">
-        <v>27</v>
+      <c r="N4" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
     <row r="5" ht="16.5" spans="1:16">
-      <c r="A5" s="31"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="I5" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
@@ -8827,15 +8705,23 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" ht="16.5" spans="1:16">
-      <c r="A6" s="31"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="I6" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -12337,11 +12223,15 @@
       <c r="P200" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:M6"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="N2:N3"/>
@@ -12390,31 +12280,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -12868,13 +12758,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -12882,7 +12772,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="17"/>
       <c r="J1" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -12892,13 +12782,13 @@
         <v>4</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
@@ -13487,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -13502,11 +13392,11 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>7</v>
@@ -13514,7 +13404,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -13567,7 +13457,7 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -16393,27 +16283,27 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>

--- a/Lan_api/webui_api_827.xlsx
+++ b/Lan_api/webui_api_827.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="10140" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="14205" windowHeight="9600" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Logout" sheetId="1" r:id="rId1"/>
@@ -594,6 +594,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -602,12 +608,6 @@
     </font>
     <font>
       <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -4500,7 +4500,7 @@
   <dimension ref="A1:R200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -8562,8 +8562,8 @@
   </sheetPr>
   <dimension ref="A1:P200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
